--- a/Dispa-SET/Simulation/InputDispa-SET - Reserve.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Reserve.xlsx
@@ -114,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +436,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -445,7 +444,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -453,7 +452,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -461,7 +460,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -469,7 +468,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -477,7 +476,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -485,7 +484,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -493,7 +492,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -501,7 +500,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -509,7 +508,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -517,7 +516,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,7 +524,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="b">
         <v>0</v>
       </c>
     </row>
